--- a/medicine/Premiers secours et secourisme/Médaille_Henry-Dunant/Médaille_Henry-Dunant.xlsx
+++ b/medicine/Premiers secours et secourisme/Médaille_Henry-Dunant/Médaille_Henry-Dunant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Henry-Dunant</t>
+          <t>Médaille_Henry-Dunant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médaille Henry-Dunant est la plus haute distinction décernée par la Croix-Rouge. Elle porte le nom d'Henry Dunant, le fondateur de la Croix-Rouge. La médaille est décernée tous les deux ans par la Commission Permanente de la Croix-Rouge et du Croissant-Rouge. Ce comité représente le Comité International de la Croix-Rouge, la Fédération Internationale des sociétés de la Croix-Rouge et du Croissant-Rouge et les diverses organisations nationales de la Croix-Rouge et du Croissant-Rouge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Henry-Dunant</t>
+          <t>Médaille_Henry-Dunant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1963, l'idée de créer une médaille nommée en l'honneur du fondateur de la Croix-Rouge Internationale a été soumise et approuvée par le Conseil des Délégués. Cela a coïncidé avec la célébration du 100e anniversaire de la Croix-Rouge. En 1965, grâce à la générosité de la Croix-Rouge australienne, la Médaille Henry-Dunant a été officiellement créée par la Conférence international de la Croix-Rouge de Vienne[1]. Les premières médailles ont été décernées en 1969[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1963, l'idée de créer une médaille nommée en l'honneur du fondateur de la Croix-Rouge Internationale a été soumise et approuvée par le Conseil des Délégués. Cela a coïncidé avec la célébration du 100e anniversaire de la Croix-Rouge. En 1965, grâce à la générosité de la Croix-Rouge australienne, la Médaille Henry-Dunant a été officiellement créée par la Conférence international de la Croix-Rouge de Vienne. Les premières médailles ont été décernées en 1969.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Henry-Dunant</t>
+          <t>Médaille_Henry-Dunant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Critères d'attribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission permanente de la Croix-Rouge et du Croissant-Rouge décerne au maximum cinq médailles tous les deux ans. Cette limite est imposée pour garantir la valeur et le prestige de la médaille, honneur le plus élevé que la Croix-Rouge puisse attribuer à l'un de ses membres.
 La médaille est décernée afin de "reconnaître et de récompenser des services exceptionnels et des actes de grand dévouement à la cause de la Croix-Rouge et du Croissant-Rouge, accomplis par un membre du Mouvement", surtout s'il s'agit d'actes ou de service d'importance internationale. Si la dimension internationale fait défaut, la Commission préfère que les actes de service soient reconnus par la Société nationale idoine.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Henry-Dunant</t>
+          <t>Médaille_Henry-Dunant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Médaille Henry-Dunant est en forme de croix grecque ou croix de Genève. Les bras de la croix sont en émail rouge. Au centre de la croix se trouve un médaillon circulaire de bronze à l'effigie d'Henry Dunant, tourné vers la gauche. La mention HENRY DUNANT 1828-1910 est circonscrite autour de cette effigie. Le revers de la médaille n'est pas ouvragé. Le bras supérieur de la croix porte une boucle pour faire passer le ruban de suspension[3].
-Le ruban est décrit comme vert, ou vert avec des lisérés rouges[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Médaille Henry-Dunant est en forme de croix grecque ou croix de Genève. Les bras de la croix sont en émail rouge. Au centre de la croix se trouve un médaillon circulaire de bronze à l'effigie d'Henry Dunant, tourné vers la gauche. La mention HENRY DUNANT 1828-1910 est circonscrite autour de cette effigie. Le revers de la médaille n'est pas ouvragé. Le bras supérieur de la croix porte une boucle pour faire passer le ruban de suspension.
+Le ruban est décrit comme vert, ou vert avec des lisérés rouges.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Henry-Dunant</t>
+          <t>Médaille_Henry-Dunant</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,20 +625,22 @@
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1977. Sai Aung Hlaing Myint. Un membre de la Croix-Rouge du Myanmar, pour avoir sauvé un soldat dont la voiture était tombée dans la rivière Ayeyarwady, glaciale à ce moment-là.
 1969. Pierre Tacier. Premier récipiendaire vivant de la médaille, ancien délégué du CICR.
-1973. John MacAulay. Président de la Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge de 1959 à 1965, premier récipiendaire canadien[5].
-1983. Dr. Abdul Aziz Mudarris. Fondateur et premier président du Croissant-Rouge saoudien[6].
-1987. Joseph Adefarasin. Ancien président de la Ligue de la Croix-Rouge, premier bénéficiaire nigérian[7].
+1973. John MacAulay. Président de la Fédération internationale des Sociétés de la Croix-Rouge et du Croissant-Rouge de 1959 à 1965, premier récipiendaire canadien.
+1983. Dr. Abdul Aziz Mudarris. Fondateur et premier président du Croissant-Rouge saoudien.
+1987. Joseph Adefarasin. Ancien président de la Ligue de la Croix-Rouge, premier bénéficiaire nigérian.
 J. Edwin Lloyd, 19xx, pasteur libérien, ancien président de la Société nationale de la Croix-Rouge libérienne (1986-1989).
-1989. Dr Ali Fourati. Président honoraire du croissant-rouge tunisien[8]
-1993. Dr. Ahmad Abu Goura. Président du Croissant-Rouge jordanien de 1964 à 1993[9].
+1989. Dr Ali Fourati. Président honoraire du croissant-rouge tunisien
+1993. Dr. Ahmad Abu Goura. Président du Croissant-Rouge jordanien de 1964 à 1993.
 1997. Sheryl Thayer, Hans Elkerbout, Fernanda Calado, Gunnhild Myklebust, Ingebjorg Foss, Nancy Malloy, délégués assassinés dans la mission du CICR à l'hôpital de Novi Atagi, Tchétchénie
 2001. Phlech Phiroun. Ancien président de la Croix-Rouge cambodgienne.
-2001. Roger Durand. Fondateur et président de la Société Henry Dunant et ancien vice-président de la Croix-Rouge de Genève[10].
-2003. Monique Basque. Ancien président de la Croix-Rouge de Côte d'Ivoire[11].
+2001. Roger Durand. Fondateur et président de la Société Henry Dunant et ancien vice-président de la Croix-Rouge de Genève.
+2003. Monique Basque. Ancien président de la Croix-Rouge de Côte d'Ivoire.
 2003. Frits Kalshoven. Juriste et spécialiste du droit international humanitaire.
 2003. André Durand. Ancien délégué du CICR et auteur d'une histoire du CICR et du Mouvement
 2003. Noreen Minogue. Ancien Secrétaire général adjoint de la Croix-Rouge australienne et promoteur du droit international humanitaire.
@@ -636,7 +656,7 @@
 2009. Datuk Datin Paduka Ruby Lee. Ancien secrétaire général de la Société malaisienne du Croissant-Rouge (MRCS)
 2011. Shimelis Adugna. Ancien président de la Croix-Rouge éthiopienne et ancien ministre des Affaires sociales et du travail d'Éthiopie
 2011. Astrid Nøklebye Heiberg. Ancien président de la Croix-Rouge norvégienne et ancien président de la Fédération internationale de la Société de la Croix-Rouge et du Croissant-Rouge
-2013. Alberto Cairo, chef du programme de réadaptation physique du Comité international de la Croix-Rouge (CICR) en Afghanistan[12]</t>
+2013. Alberto Cairo, chef du programme de réadaptation physique du Comité international de la Croix-Rouge (CICR) en Afghanistan</t>
         </is>
       </c>
     </row>
